--- a/public/DashBoardData.xlsx
+++ b/public/DashBoardData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panga\OneDrive\Desktop\Seva\PreachingDashboard\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E99E942-443C-4662-A86E-A48E3E0663FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31224E7A-DA39-4EE3-B93E-FB71D07F356A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-15135" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-15135" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,6 @@
     <t>Books distributed</t>
   </si>
   <si>
-    <t>New contacts</t>
-  </si>
-  <si>
     <t>Chanting status</t>
   </si>
   <si>
@@ -179,15 +176,15 @@
   </si>
   <si>
     <t>Devotee</t>
+  </si>
+  <si>
+    <t>New Contacts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmm\-d"/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -381,10 +378,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -405,7 +401,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -637,34 +632,34 @@
   </sheetPr>
   <dimension ref="A1:AA5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="28.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -689,71 +684,71 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>46026</v>
-      </c>
-      <c r="B2" s="3">
+    <row r="2" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>37987</v>
+      </c>
+      <c r="B2" s="13">
         <v>24</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="13">
         <v>30</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="13">
         <v>30</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>46033</v>
-      </c>
-      <c r="B3" s="3">
+    <row r="3" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>40544</v>
+      </c>
+      <c r="B3" s="13">
         <v>38</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="13">
         <v>25</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="13">
         <v>35</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="13">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>46040</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>43101</v>
+      </c>
+      <c r="B4" s="13">
         <v>37</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="13">
         <v>18</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="13">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="13">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>46047</v>
-      </c>
-      <c r="B5" s="3">
+    <row r="5" spans="1:27" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>45658</v>
+      </c>
+      <c r="B5" s="13">
         <v>45</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="13">
         <v>26</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="13">
         <v>35</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="13">
         <v>19</v>
       </c>
     </row>
@@ -769,7 +764,7 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -779,42 +774,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -836,65 +831,65 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="E2" s="2">
         <f>SUM(B:B)</f>
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0</v>
-      </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
     </row>
@@ -920,87 +915,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="13" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="15">
         <v>37987</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B2" s="13">
         <v>8</v>
       </c>
-      <c r="C2" s="14">
+      <c r="C2" s="13">
         <v>1</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>10</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
+      <c r="A3" s="15">
         <v>40544</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>9</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="13">
         <v>4</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="13">
         <v>8</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="15">
         <v>43101</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4" s="13">
         <v>8</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <v>1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>7</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="15">
         <v>45658</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>16</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="13">
         <v>0</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="13">
         <v>8</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>2</v>
       </c>
     </row>
@@ -1027,160 +1022,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7">
         <v>50</v>
       </c>
-      <c r="B1" s="4" t="s">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="8">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="7">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="8">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="5">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="6">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="7">
+        <v>212.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="8">
-        <v>212.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="8"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="B11" s="9"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="8"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="B13" s="9"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="8"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="B15" s="9"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="8"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="B19" s="9"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="10"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="8"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
+      <c r="B21" s="9"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="8"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" s="12"/>
+      <c r="B23" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1201,56 +1196,56 @@
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="3">
-        <v>5</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="14">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>5</v>
       </c>
     </row>
@@ -1272,47 +1267,47 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="E2" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
     </row>

--- a/public/DashBoardData.xlsx
+++ b/public/DashBoardData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>Day</t>
   </si>
@@ -79,10 +79,16 @@
     <t>Points</t>
   </si>
   <si>
-    <t>Teja</t>
-  </si>
-  <si>
-    <t>Surakhshitha Devi</t>
+    <t>4 Jan</t>
+  </si>
+  <si>
+    <t>10 Jan</t>
+  </si>
+  <si>
+    <t>Teja Pr</t>
+  </si>
+  <si>
+    <t>Surakhshitha Mtj</t>
   </si>
   <si>
     <t>Kritesh pr</t>
@@ -151,34 +157,56 @@
     <t>Mentees</t>
   </si>
   <si>
-    <t>Kritesh Pr</t>
-  </si>
-  <si>
-    <t>Lokesh Pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teja Pr </t>
-  </si>
-  <si>
-    <t>Akash Pr</t>
-  </si>
-  <si>
-    <t>Teja Siva Pr</t>
+    <t xml:space="preserve">Naga Varun Pr &amp; Manisha Mtj </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lokesh Pr &amp; Kavya Mtj </t>
+  </si>
+  <si>
+    <t>Teja Pr &amp; Surakhshitha Mtj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siva Sagar Pr &amp; Anusha S Mtj </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brahmaleela Mtj </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sreenivas Pr &amp; Vishnu Priyanka Mtj </t>
+  </si>
+  <si>
+    <t>Sai Varun Pr</t>
   </si>
   <si>
     <t>Worksheets</t>
   </si>
   <si>
-    <t xml:space="preserve">A+ / A </t>
+    <t>28th Dec</t>
+  </si>
+  <si>
+    <t>4th Jan</t>
+  </si>
+  <si>
+    <t>11th Jan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18th Jan </t>
+  </si>
+  <si>
+    <t xml:space="preserve">25th Jan </t>
+  </si>
+  <si>
+    <t>1st Feb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="mmm-d"/>
     <numFmt numFmtId="165" formatCode="mmm - d"/>
+    <numFmt numFmtId="166" formatCode="d mmm"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -235,6 +263,34 @@
     <border/>
     <border>
       <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF284E3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
@@ -249,38 +305,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFFFFFF"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF284E3F"/>
       </left>
       <right style="thin">
         <color rgb="FFF6F8F9"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF6F8F9"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFF6F8F9"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF6F8F9"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF284E3F"/>
       </right>
       <top style="thin">
         <color rgb="FFF6F8F9"/>
@@ -321,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -345,20 +373,30 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" wrapText="0"/>
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
@@ -651,7 +689,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.0"/>
+    <col customWidth="1" min="1" max="1" width="7.25"/>
     <col customWidth="1" min="2" max="2" width="10.13"/>
     <col customWidth="1" min="3" max="3" width="15.13"/>
     <col customWidth="1" min="4" max="4" width="11.75"/>
@@ -793,6 +831,26 @@
         <v>9.0</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>46068.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>56.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>27.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>30.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1097,6 +1155,26 @@
         <v>15</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" s="3">
+        <v>46068.0</v>
+      </c>
+      <c r="B8" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.0</v>
+      </c>
+      <c r="D8" s="4">
+        <v>3.0</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>14.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1116,6 +1194,11 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.63"/>
+    <col customWidth="1" min="4" max="4" width="14.5"/>
+    <col customWidth="1" min="5" max="5" width="7.88"/>
+    <col customWidth="1" min="6" max="6" width="8.75"/>
+    <col customWidth="1" min="9" max="10" width="6.63"/>
+    <col customWidth="1" min="11" max="11" width="7.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1125,181 +1208,397 @@
       <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="10">
+        <v>46039.0</v>
+      </c>
+      <c r="H1" s="10">
+        <v>46047.0</v>
+      </c>
+      <c r="I1" s="10">
+        <v>46054.0</v>
+      </c>
+      <c r="J1" s="10">
+        <v>46060.0</v>
+      </c>
+      <c r="K1" s="10">
+        <v>46067.0</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="10">
-        <v>146.33333333333334</v>
+      <c r="A2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="11">
+        <v>194.33333333333331</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>36.5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>35.5</v>
+      </c>
+      <c r="I2" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>18.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="11" t="s">
-        <v>21</v>
+      <c r="A3" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B3" s="12">
-        <v>99.5</v>
+        <v>135.0</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>31.5</v>
+      </c>
+      <c r="G3" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>18.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="10">
-        <v>157.58333333333334</v>
+      <c r="A4" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11">
+        <v>244.08333333333334</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="F4" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>26.166666666666668</v>
+      </c>
+      <c r="H4" s="14">
+        <v>27.5</v>
+      </c>
+      <c r="I4" s="14">
+        <v>17.666666666666668</v>
+      </c>
+      <c r="J4" s="14">
+        <v>18.0</v>
+      </c>
+      <c r="K4" s="14">
+        <v>36.5</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>23</v>
+      <c r="A5" s="15" t="s">
+        <v>25</v>
       </c>
       <c r="B5" s="12">
-        <v>50.083333333333336</v>
+        <v>75.5</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="G5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>10.5</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="A6" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="11">
         <v>16.0</v>
       </c>
+      <c r="D6" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>25</v>
+      <c r="A7" s="15" t="s">
+        <v>27</v>
       </c>
       <c r="B7" s="12">
-        <v>100.75</v>
+        <v>141.33333333333334</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="6">
+        <v>51.5</v>
+      </c>
+      <c r="F7" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="6">
+        <v>10.0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>18.5</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="10">
-        <v>140.0</v>
+      <c r="A8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="11">
+        <v>179.58333333333334</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="G8" s="14">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="H8" s="14">
+        <v>15.5</v>
+      </c>
+      <c r="I8" s="14">
+        <v>10.0</v>
+      </c>
+      <c r="J8" s="14">
+        <v>8.5</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>27</v>
+      <c r="A9" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="B9" s="12">
-        <v>196.83333333333331</v>
+        <v>228.08333333333331</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>19.0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="13">
-        <v>36.5</v>
+      <c r="A10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="17">
+        <v>41.5</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="14">
-        <v>36.5</v>
+      <c r="A11" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="18">
+        <v>41.5</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="13">
-        <v>42.5</v>
+      <c r="A12" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="17">
+        <v>43.33333333333333</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="14">
-        <v>49.0</v>
+      <c r="A13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="18">
+        <v>52.33333333333333</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="13">
-        <v>28.5</v>
+      <c r="A14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="17">
+        <v>39.166666666666664</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="14">
-        <v>8.5</v>
+      <c r="A15" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="18">
+        <v>11.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="13">
-        <v>31.5</v>
+      <c r="A16" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="17">
+        <v>32.33333333333333</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="14">
-        <v>31.5</v>
+      <c r="A17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="18">
+        <v>32.33333333333333</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="13">
-        <v>28.5</v>
+      <c r="A18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="17">
+        <v>32.25</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="14">
-        <v>18.5</v>
+      <c r="A19" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="18">
+        <v>21.0</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="13">
-        <v>0.0</v>
+      <c r="A20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="17">
+        <v>4.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="14">
-        <v>15.0</v>
+      <c r="A21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="18">
+        <v>17.5</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" s="13">
-        <v>21.75</v>
+      <c r="A22" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="17">
+        <v>29.666666666666668</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="16">
-        <v>32.5</v>
+      <c r="A23" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="20">
+        <v>37.5</v>
       </c>
     </row>
   </sheetData>
@@ -1319,18 +1618,21 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="29.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="4">
         <v>5.0</v>
@@ -1340,28 +1642,28 @@
       </c>
       <c r="E2" s="6">
         <f>SUM(B:B)</f>
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B3" s="4">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B4" s="4">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B5" s="4">
         <v>4.0</v>
@@ -1369,10 +1671,26 @@
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B6" s="4">
-        <v>5.0</v>
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
@@ -1395,48 +1713,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4">
-        <v>1.0</v>
+      <c r="A2" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="B2" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="4">
-        <v>26.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="4">
-        <v>2.0</v>
+      <c r="A3" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="B3" s="4">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4">
         <v>3.0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4">
-        <v>3.0</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2.0</v>
-      </c>
-    </row>
     <row r="5">
-      <c r="A5" s="4">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="4">
         <v>4.0</v>
       </c>
-      <c r="B5" s="4">
-        <v>1.0</v>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="4">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="4">
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>
